--- a/biology/Médecine/Petit_omentum/Petit_omentum.xlsx
+++ b/biology/Médecine/Petit_omentum/Petit_omentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit omentum ou petit épiploon est une structure péritonéale entre le foie et l'estomac qui sert à acheminer les vaisseaux du foie.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le petit omentum ou petit épiploon est composé des ligaments hépato-gastrique et hépato-duodénal.
-Le ligament hépato-duodénal, c'est-à-dire le bord libre droit du petit omentum recouvre et protège la triade porte hépatique. Celle-ci comprend la veine porte hépatique, l'artère hépatique propre et le conduit biliaire commun[1].
-On peut diviser le petit omentum en plusieurs parties qui sont[2] : 
+Le ligament hépato-duodénal, c'est-à-dire le bord libre droit du petit omentum recouvre et protège la triade porte hépatique. Celle-ci comprend la veine porte hépatique, l'artère hépatique propre et le conduit biliaire commun.
+On peut diviser le petit omentum en plusieurs parties qui sont : 
 la pars condensa : au niveau du cardia ;
 la pars flaccida ;
 la pars vasculosa : enveloppant le hile hépatique.</t>
